--- a/Buyer hub/Orders/Automated testcases/New order testcases.xlsx
+++ b/Buyer hub/Orders/Automated testcases/New order testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC9720-F458-4151-B1C0-964AE35D1ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C5AA38-58BD-4454-B2B7-E6D8B3C2536A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>SL. No</t>
   </si>
@@ -437,12 +437,6 @@
     </r>
   </si>
   <si>
-    <t>It should display the New order, New recurring order and New weekly order</t>
-  </si>
-  <si>
-    <t>It gets displayed the New order, New recurring order and New weekly order</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Click on the </t>
     </r>
@@ -489,6 +483,153 @@
       </rPr>
       <t xml:space="preserve"> then its show the Review order page on the screen </t>
     </r>
+  </si>
+  <si>
+    <t>Reason for disabling ordering currently showing as 'Currently unavailable' in supplier ,now new implementation as 3 options                                                     1.Payment outstanding                                                                 2.Order setting unverified                                                              3.Setting not Configured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In admin select supplier and manage settings if we select those options aand update then it gets displayed in the buyer </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order-&gt;Payment outstanding</t>
+    </r>
+  </si>
+  <si>
+    <t>"Currently unavailable - payment outstanding"
+shown to those who have not settled their payment plan bill.</t>
+  </si>
+  <si>
+    <t>It displayed in payment outstanding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"New order-&gt;Order setting unverified </t>
+    </r>
+  </si>
+  <si>
+    <t>"Currently unavailable - order settings unverified" Shown to outlets who have not verified order settings for the selected supplier.</t>
+  </si>
+  <si>
+    <t>It displayed Order settings unverified</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New order-&gt;Setting not Configured</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Currently unavailable - Setting not Configured               the message is just an info that another user from the outlet with permission has to verify the supplier settings first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It displayed Setting not Configured       </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should display the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'New order, New recurring order and New weekly order'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New order, New recurring order and New weekly order</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order"</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Create recurring order pop up page                          2.Delivery to Select outlet dropdown, Order from Select supplier dropdown, Delivery on, Skip check box Public holidays, Eve of holidays check box, End date, select date, Contact person dropdown, Place order dropdown and Next Add SKU</t>
+  </si>
+  <si>
+    <t>It gets displayed the as expected</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"New recurring order-&gt;close"</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the Close icon it return back to All orders page</t>
   </si>
 </sst>
 </file>
@@ -590,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -627,13 +768,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1155,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1014,17 +1168,17 @@
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1034,112 +1188,112 @@
         <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1149,20 +1303,20 @@
         <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1172,20 +1326,20 @@
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+        <v>23</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1195,79 +1349,79 @@
         <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>55</v>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>20</v>
@@ -1276,26 +1430,164 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>10</v>
       </c>
     </row>
